--- a/src/data/datos_entregados.xlsx
+++ b/src/data/datos_entregados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elava\Documents\2do_2021\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablokipreos/Desktop/Universidad/Capstone/Capstone-Project/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{520BF6B7-E172-4C72-B19B-6C693A29847C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63990A5-2C68-6F4C-909A-114BCFC66543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{7D153CD8-6E78-4981-ADA7-D8C8139A0A29}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{7D153CD8-6E78-4981-ADA7-D8C8139A0A29}"/>
   </bookViews>
   <sheets>
     <sheet name="lotes" sheetId="1" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1330,12 +1330,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5234375" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>177.47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>251.01</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>196.83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>226.78</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>146.88999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>182.53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>205.63</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>145.69</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>164.31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>166.33</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>185.07</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>173.11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>166.33</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>177.47</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>158.91</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>188.42</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>185.24</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>177.47</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>196.83</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>141.09</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>171.79</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>185.24</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>192.04</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>196.83</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>192.82</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>185.24</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>171.79</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>188.42</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>174.93</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>164.31</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>205.63</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>181.04</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>236.93</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>181.04</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>173.11</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>193.22</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>169.51</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>173.11</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>174.93</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>174.93</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>226.78</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>145.69</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>181.04</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>174.93</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>169.51</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>146.88999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>185.07</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>193.22</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>141.09</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>196.83</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>236.93</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>171.79</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>226.78</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>150</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>173.11</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>169.51</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>192.82</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>156</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>157</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>164.31</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>159</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>169.51</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>174.76</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>177.47</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>169.51</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>192.04</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>192.82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>167</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>146.88999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>174</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>175</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>173.11</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>177</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>178</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>171.79</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>179</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>146.88999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>180</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>182</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>183</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>185</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>185.24</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>192.04</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>187</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>164.31</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>181.04</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>189</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>192.04</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>190</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>191</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>192</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>193</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>195</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>226.78</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>196</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>198</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>199</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>145.69</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>200</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>201</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>202</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>181.04</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>203</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>236.93</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>204</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>205</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>171.79</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>206</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>207</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>208</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>210</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>154.31</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>211</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>154.31</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>212</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>213</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>214</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>215</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>181.04</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>216</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>169.51</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>217</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>164.31</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>218</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>219</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>205.63</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>220</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>174.93</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>221</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>222</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>223</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>169.51</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>224</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>196.83</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>225</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>226</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>227</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>228</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>192.82</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>229</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>181.04</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>231</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>192.82</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>232</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>251.01</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>233</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>234</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>235</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>153.66999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>236</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>174.93</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>237</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>238</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>239</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>174.76</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>241</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>242</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>243</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>158.91</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>244</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>153.66999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>245</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>246</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>247</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>188.42</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>248</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>158.91</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>249</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>250</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>251</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>252</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>218.11</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>253</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>192.04</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>254</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>255</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>158.91</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>256</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>257</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>258</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>259</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>260</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>218.11</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>261</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>262</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>263</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>196.83</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>264</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>201.89</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>265</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>227.13</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>266</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>251.01</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>267</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>268</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>269</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>171.79</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>270</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>145.69</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>271</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>272</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>273</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>274</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>218.11</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>275</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>146.88999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>276</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>277</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>278</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>279</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>201.89</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>280</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>251.01</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>281</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>282</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>145.69</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>283</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>182.53</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>284</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>285</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>218.11</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>286</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>287</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>243.92</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>288</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>177.47</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>289</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>218.11</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>290</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>254.22</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>292</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>294</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>154.31</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>295</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>280.76</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>296</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>256.08</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>297</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>262.58999999999997</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>298</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>299</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>247.62</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>300</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>201.89</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>301</v>
       </c>
@@ -12400,119 +12400,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EEEF9-D1D3-4D1D-8271-DEC45E55D298}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>304</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>302</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.85</v>
+      </c>
+      <c r="C2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C3">
-        <v>0.85</v>
-      </c>
-      <c r="D3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
         <v>0.92</v>
       </c>
-      <c r="D4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.88</v>
+      </c>
+      <c r="C5">
         <v>0.93</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.9</v>
-      </c>
-      <c r="D5">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
-        <v>4</v>
+        <v>0.95</v>
       </c>
       <c r="C6">
-        <v>0.88</v>
-      </c>
-      <c r="D6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.89</v>
+      </c>
+      <c r="C7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.95</v>
-      </c>
-      <c r="D7">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8">
-        <v>6</v>
-      </c>
       <c r="C8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.94</v>
+      </c>
+      <c r="C9">
         <v>0.89</v>
       </c>
-      <c r="D8">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.93</v>
-      </c>
-      <c r="D9">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0.94</v>
-      </c>
-      <c r="D10">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>306</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>308</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>309</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>310</v>
       </c>
